--- a/[TEC]/!PARCIAL 1 TEC/Punto5.xlsx
+++ b/[TEC]/!PARCIAL 1 TEC/Punto5.xlsx
@@ -103,7 +103,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -119,59 +119,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$8</c:f>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$8</c:f>
+              <c:f>Hoja1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>6.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>2.2222222222222223</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
@@ -187,11 +202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96571776"/>
-        <c:axId val="96573312"/>
+        <c:axId val="100633600"/>
+        <c:axId val="15586048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96571776"/>
+        <c:axId val="100633600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,7 +216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96573312"/>
+        <c:crossAx val="15586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -209,7 +224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96573312"/>
+        <c:axId val="15586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -220,7 +235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96571776"/>
+        <c:crossAx val="100633600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -247,15 +262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -564,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -582,7 +597,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>A5-A8</f>
         <v>500</v>
       </c>
       <c r="B2" s="1">
@@ -591,58 +605,83 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A5-A7</f>
-        <v>1100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A5-A6</f>
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="1">
-        <f>A5/100</f>
-        <v>20</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="B6" s="1">
-        <f>B5/3</f>
-        <v>6.666666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6*3</f>
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="B7" s="1">
-        <f>B6/3</f>
-        <v>2.2222222222222223</v>
+        <f>A7/100</f>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A6*5</f>
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="B8" s="1">
-        <f>B6/5</f>
+        <f>B7/3</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B8/3</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B8/5</f>
         <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
